--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H2">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>66.38494866666666</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N2">
-        <v>199.154846</v>
+        <v>107.04732</v>
       </c>
       <c r="O2">
-        <v>0.4171200956172241</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4171200956172242</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>2717.987800587957</v>
+        <v>19.83708159896</v>
       </c>
       <c r="R2">
-        <v>24461.89020529161</v>
+        <v>178.53373439064</v>
       </c>
       <c r="S2">
-        <v>0.1077421209392399</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="T2">
-        <v>0.1077421209392399</v>
+        <v>0.005745252779589094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.942832</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H3">
-        <v>122.828496</v>
+        <v>239.063137</v>
       </c>
       <c r="I3">
-        <v>0.2583000005785166</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J3">
-        <v>0.2583000005785166</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.76573566666667</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N3">
-        <v>278.297207</v>
+        <v>107.04732</v>
       </c>
       <c r="O3">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>3798.091930756741</v>
+        <v>2843.452014071426</v>
       </c>
       <c r="R3">
-        <v>34182.82737681067</v>
+        <v>25591.06812664284</v>
       </c>
       <c r="S3">
-        <v>0.1505578796392767</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="T3">
-        <v>0.1505578796392767</v>
+        <v>0.823525905561055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>79.68771233333334</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H4">
-        <v>239.063137</v>
+        <v>1.034099</v>
       </c>
       <c r="I4">
-        <v>0.5027335710876245</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J4">
-        <v>0.5027335710876245</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>66.38494866666666</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N4">
-        <v>199.154846</v>
+        <v>107.04732</v>
       </c>
       <c r="O4">
-        <v>0.4171200956172241</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.4171200956172242</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>5290.064692612434</v>
+        <v>12.29972517385333</v>
       </c>
       <c r="R4">
-        <v>47610.5822335119</v>
+        <v>110.69752656468</v>
       </c>
       <c r="S4">
-        <v>0.2097002752420585</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="T4">
-        <v>0.2097002752420585</v>
+        <v>0.003562269474506148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.68771233333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H5">
-        <v>239.063137</v>
+        <v>48.52715</v>
       </c>
       <c r="I5">
-        <v>0.5027335710876245</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J5">
-        <v>0.5027335710876245</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.76573566666667</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N5">
-        <v>278.297207</v>
+        <v>107.04732</v>
       </c>
       <c r="O5">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>7392.289258195374</v>
+        <v>577.1890394153332</v>
       </c>
       <c r="R5">
-        <v>66530.60332375836</v>
+        <v>5194.701354737999</v>
       </c>
       <c r="S5">
-        <v>0.293033295845566</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="T5">
-        <v>0.293033295845566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.3464216666666666</v>
-      </c>
-      <c r="H6">
-        <v>1.039265</v>
-      </c>
-      <c r="I6">
-        <v>0.002185503843515531</v>
-      </c>
-      <c r="J6">
-        <v>0.002185503843515531</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>66.38494866666666</v>
-      </c>
-      <c r="N6">
-        <v>199.154846</v>
-      </c>
-      <c r="O6">
-        <v>0.4171200956172241</v>
-      </c>
-      <c r="P6">
-        <v>0.4171200956172242</v>
-      </c>
-      <c r="Q6">
-        <v>22.99718455868777</v>
-      </c>
-      <c r="R6">
-        <v>206.97466102819</v>
-      </c>
-      <c r="S6">
-        <v>0.0009116175721790093</v>
-      </c>
-      <c r="T6">
-        <v>0.0009116175721790095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3464216666666666</v>
-      </c>
-      <c r="H7">
-        <v>1.039265</v>
-      </c>
-      <c r="I7">
-        <v>0.002185503843515531</v>
-      </c>
-      <c r="J7">
-        <v>0.002185503843515531</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>92.76573566666667</v>
-      </c>
-      <c r="N7">
-        <v>278.297207</v>
-      </c>
-      <c r="O7">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="P7">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="Q7">
-        <v>32.13606075920611</v>
-      </c>
-      <c r="R7">
-        <v>289.224546832855</v>
-      </c>
-      <c r="S7">
-        <v>0.001273886271336522</v>
-      </c>
-      <c r="T7">
-        <v>0.001273886271336522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>37.53186833333334</v>
-      </c>
-      <c r="H8">
-        <v>112.595605</v>
-      </c>
-      <c r="I8">
-        <v>0.2367809244903433</v>
-      </c>
-      <c r="J8">
-        <v>0.2367809244903433</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>66.38494866666666</v>
-      </c>
-      <c r="N8">
-        <v>199.154846</v>
-      </c>
-      <c r="O8">
-        <v>0.4171200956172241</v>
-      </c>
-      <c r="P8">
-        <v>0.4171200956172242</v>
-      </c>
-      <c r="Q8">
-        <v>2491.551152672425</v>
-      </c>
-      <c r="R8">
-        <v>22423.96037405183</v>
-      </c>
-      <c r="S8">
-        <v>0.09876608186374672</v>
-      </c>
-      <c r="T8">
-        <v>0.09876608186374672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>37.53186833333334</v>
-      </c>
-      <c r="H9">
-        <v>112.595605</v>
-      </c>
-      <c r="I9">
-        <v>0.2367809244903433</v>
-      </c>
-      <c r="J9">
-        <v>0.2367809244903433</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>92.76573566666667</v>
-      </c>
-      <c r="N9">
-        <v>278.297207</v>
-      </c>
-      <c r="O9">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="P9">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="Q9">
-        <v>3481.671376886138</v>
-      </c>
-      <c r="R9">
-        <v>31335.04239197524</v>
-      </c>
-      <c r="S9">
-        <v>0.1380148426265966</v>
-      </c>
-      <c r="T9">
-        <v>0.1380148426265966</v>
+        <v>0.1671665721848498</v>
       </c>
     </row>
   </sheetData>
